--- a/src/predicciones/holt_winters/producto_42.xlsx
+++ b/src/predicciones/holt_winters/producto_42.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,968 +404,968 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44933</v>
       </c>
       <c r="B2">
-        <v>1.988543768115383</v>
+        <v>1.988647904793107</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44941</v>
       </c>
       <c r="B3">
-        <v>0.9884767469471782</v>
+        <v>0.9884983451868361</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44947</v>
       </c>
       <c r="B4">
-        <v>0.9882890308479877</v>
+        <v>0.9885388576088828</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44948</v>
       </c>
       <c r="B5">
-        <v>0.9883631100995062</v>
+        <v>0.9885321007111567</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44950</v>
       </c>
       <c r="B6">
-        <v>0.9885788744558013</v>
+        <v>0.9886684029555841</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44955</v>
       </c>
       <c r="B7">
-        <v>0.9888762543887697</v>
+        <v>0.9888299441395045</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44961</v>
       </c>
       <c r="B8">
-        <v>0.9779847126516684</v>
+        <v>0.9776222514129843</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44964</v>
       </c>
       <c r="B9">
-        <v>1.97747600438491</v>
+        <v>1.977592477126659</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44965</v>
       </c>
       <c r="B10">
-        <v>0.9774089832167057</v>
+        <v>0.9774429175203885</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44968</v>
       </c>
       <c r="B11">
-        <v>0.9772212671175151</v>
+        <v>0.9774834299424352</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44969</v>
       </c>
       <c r="B12">
-        <v>0.9772953463690336</v>
+        <v>0.9774766730447091</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44979</v>
       </c>
       <c r="B13">
-        <v>0.9775111107253287</v>
+        <v>0.9776129752891365</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44983</v>
       </c>
       <c r="B14">
-        <v>0.9778084906582971</v>
+        <v>0.9777745164730569</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44985</v>
       </c>
       <c r="B15">
-        <v>0.9669169489211958</v>
+        <v>0.9665668237465367</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44986</v>
       </c>
       <c r="B16">
-        <v>1.966408240654437</v>
+        <v>1.966537049460212</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44988</v>
       </c>
       <c r="B17">
-        <v>0.9663412194862331</v>
+        <v>0.9663874898539409</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44991</v>
       </c>
       <c r="B18">
-        <v>0.9661535033870425</v>
+        <v>0.9664280022759876</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44994</v>
       </c>
       <c r="B19">
-        <v>0.9662275826385608</v>
+        <v>0.9664212453782615</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44996</v>
       </c>
       <c r="B20">
-        <v>0.9664433469948561</v>
+        <v>0.9665575476226889</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45013</v>
       </c>
       <c r="B21">
-        <v>0.9667407269278245</v>
+        <v>0.9667190888066093</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45015</v>
       </c>
       <c r="B22">
-        <v>0.955849185190723</v>
+        <v>0.9555113960800891</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45018</v>
       </c>
       <c r="B23">
-        <v>1.955340476923965</v>
+        <v>1.955481621793764</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45022</v>
       </c>
       <c r="B24">
-        <v>0.9552734557557605</v>
+        <v>0.9553320621874932</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45029</v>
       </c>
       <c r="B25">
-        <v>0.95508573965657</v>
+        <v>0.9553725746095399</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45039</v>
       </c>
       <c r="B26">
-        <v>0.9551598189080882</v>
+        <v>0.9553658177118138</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45046</v>
       </c>
       <c r="B27">
-        <v>0.9553755832643835</v>
+        <v>0.9555021199562412</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45050</v>
       </c>
       <c r="B28">
-        <v>0.955672963197352</v>
+        <v>0.9556636611401617</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45051</v>
       </c>
       <c r="B29">
-        <v>0.9447814214602505</v>
+        <v>0.9444559684136414</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45052</v>
       </c>
       <c r="B30">
-        <v>1.944272713193492</v>
+        <v>1.944426194127316</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45054</v>
       </c>
       <c r="B31">
-        <v>0.9442056920252879</v>
+        <v>0.9442766345210456</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45066</v>
       </c>
       <c r="B32">
-        <v>0.9440179759260972</v>
+        <v>0.9443171469430923</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45070</v>
       </c>
       <c r="B33">
-        <v>0.9440920551776156</v>
+        <v>0.9443103900453662</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45072</v>
       </c>
       <c r="B34">
-        <v>0.944307819533911</v>
+        <v>0.9444466922897936</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45078</v>
       </c>
       <c r="B35">
-        <v>0.9446051994668792</v>
+        <v>0.944608233473714</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45080</v>
       </c>
       <c r="B36">
-        <v>0.9337136577297779</v>
+        <v>0.9334005407471938</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45086</v>
       </c>
       <c r="B37">
-        <v>1.93320494946302</v>
+        <v>1.933370766460869</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45087</v>
       </c>
       <c r="B38">
-        <v>0.9331379282948153</v>
+        <v>0.933221206854598</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45088</v>
       </c>
       <c r="B39">
-        <v>0.9329502121956246</v>
+        <v>0.9332617192766447</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45090</v>
       </c>
       <c r="B40">
-        <v>0.9330242914471431</v>
+        <v>0.9332549623789186</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45119</v>
       </c>
       <c r="B41">
-        <v>0.9332400558034384</v>
+        <v>0.933391264623346</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45124</v>
       </c>
       <c r="B42">
-        <v>0.9335374357364066</v>
+        <v>0.9335528058072664</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45126</v>
       </c>
       <c r="B43">
-        <v>0.9226458939993053</v>
+        <v>0.9223451130807462</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45128</v>
       </c>
       <c r="B44">
-        <v>1.922137185732547</v>
+        <v>1.922315338794421</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45135</v>
       </c>
       <c r="B45">
-        <v>0.9220701645643425</v>
+        <v>0.9221657791881503</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45138</v>
       </c>
       <c r="B46">
-        <v>0.921882448465152</v>
+        <v>0.9222062916101971</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45143</v>
       </c>
       <c r="B47">
-        <v>0.9219565277166705</v>
+        <v>0.922199534712471</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45151</v>
       </c>
       <c r="B48">
-        <v>0.9221722920729656</v>
+        <v>0.9223358369568984</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45159</v>
       </c>
       <c r="B49">
-        <v>0.922469672005934</v>
+        <v>0.9224973781408188</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45164</v>
       </c>
       <c r="B50">
-        <v>0.9115781302688327</v>
+        <v>0.9112896854142986</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45169</v>
       </c>
       <c r="B51">
-        <v>1.911069422002074</v>
+        <v>1.911259911127974</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45184</v>
       </c>
       <c r="B52">
-        <v>0.91100240083387</v>
+        <v>0.9111103515217027</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45192</v>
       </c>
       <c r="B53">
-        <v>0.9108146847346794</v>
+        <v>0.9111508639437494</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45201</v>
       </c>
       <c r="B54">
-        <v>0.9108887639861979</v>
+        <v>0.9111441070460233</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45207</v>
       </c>
       <c r="B55">
-        <v>0.911104528342493</v>
+        <v>0.9112804092904507</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45214</v>
       </c>
       <c r="B56">
-        <v>0.9114019082754614</v>
+        <v>0.9114419504743712</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45216</v>
       </c>
       <c r="B57">
-        <v>0.9005103665383601</v>
+        <v>0.9002342577478509</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45217</v>
       </c>
       <c r="B58">
-        <v>1.900001658271602</v>
+        <v>1.900204483461526</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45219</v>
       </c>
       <c r="B59">
-        <v>0.8999346371033974</v>
+        <v>0.9000549238552551</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45220</v>
       </c>
       <c r="B60">
-        <v>0.8997469210042068</v>
+        <v>0.9000954362773018</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45224</v>
       </c>
       <c r="B61">
-        <v>0.8998210002557251</v>
+        <v>0.9000886793795757</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45233</v>
       </c>
       <c r="B62">
-        <v>0.9000367646120204</v>
+        <v>0.9002249816240031</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45235</v>
       </c>
       <c r="B63">
-        <v>0.9003341445449888</v>
+        <v>0.9003865228079235</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45237</v>
       </c>
       <c r="B64">
-        <v>0.8894426028078876</v>
+        <v>0.8891788300814033</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45238</v>
       </c>
       <c r="B65">
-        <v>1.888933894541129</v>
+        <v>1.889149055795078</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45241</v>
       </c>
       <c r="B66">
-        <v>0.8888668733729248</v>
+        <v>0.8889994961888075</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45245</v>
       </c>
       <c r="B67">
-        <v>0.8886791572737343</v>
+        <v>0.8890400086108542</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45247</v>
       </c>
       <c r="B68">
-        <v>0.8887532365252525</v>
+        <v>0.8890332517131281</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45248</v>
       </c>
       <c r="B69">
-        <v>0.8889690008815478</v>
+        <v>0.8891695539575555</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45250</v>
       </c>
       <c r="B70">
-        <v>0.8892663808145163</v>
+        <v>0.8893310951414759</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45252</v>
       </c>
       <c r="B71">
-        <v>0.8783748390774148</v>
+        <v>0.8781234024149557</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45254</v>
       </c>
       <c r="B72">
-        <v>1.877866130810657</v>
+        <v>1.878093628128631</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45259</v>
       </c>
       <c r="B73">
-        <v>0.8777991096424522</v>
+        <v>0.8779440685223601</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45260</v>
       </c>
       <c r="B74">
-        <v>0.8776113935432615</v>
+        <v>0.8779845809444066</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45276</v>
       </c>
       <c r="B75">
-        <v>0.8776854727947799</v>
+        <v>0.8779778240466805</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45284</v>
       </c>
       <c r="B76">
-        <v>0.8779012371510753</v>
+        <v>0.8781141262911079</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45287</v>
       </c>
       <c r="B77">
-        <v>0.8781986170840435</v>
+        <v>0.8782756674750283</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45300</v>
       </c>
       <c r="B78">
-        <v>0.8673070753469422</v>
+        <v>0.8670679747485081</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45302</v>
       </c>
       <c r="B79">
-        <v>1.866798367080184</v>
+        <v>1.867038200462183</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45317</v>
       </c>
       <c r="B80">
-        <v>0.8667313459119796</v>
+        <v>0.8668886408559122</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45324</v>
       </c>
       <c r="B81">
-        <v>0.8665436298127889</v>
+        <v>0.8669291532779589</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45327</v>
       </c>
       <c r="B82">
-        <v>0.8666177090643074</v>
+        <v>0.8669223963802328</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45328</v>
       </c>
       <c r="B83">
-        <v>0.8668334734206027</v>
+        <v>0.8670586986246602</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45329</v>
       </c>
       <c r="B84">
-        <v>0.8671308533535709</v>
+        <v>0.8672202398085807</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45332</v>
       </c>
       <c r="B85">
-        <v>0.8562393116164696</v>
+        <v>0.8560125470820604</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45336</v>
       </c>
       <c r="B86">
-        <v>1.855730603349711</v>
+        <v>1.855982772795735</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45337</v>
       </c>
       <c r="B87">
-        <v>0.8556635821815068</v>
+        <v>0.8558332131894648</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45338</v>
       </c>
       <c r="B88">
-        <v>0.8554758660823163</v>
+        <v>0.8558737256115113</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45340</v>
       </c>
       <c r="B89">
-        <v>0.8555499453338348</v>
+        <v>0.8558669687137852</v>
       </c>
       <c r="C89">
         <v>1</v>
